--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121143a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/seguranca/cv121143a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>unnamed: 1_level_0</t>
   </si>
@@ -25,9 +25,6 @@
     <t>não economicamente ativas</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
-  </si>
-  <si>
     <t>total</t>
   </si>
   <si>
@@ -37,22 +34,13 @@
     <t>condição de ocupação na semana de referência.1</t>
   </si>
   <si>
-    <t>unnamed: 5_level_1</t>
-  </si>
-  <si>
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
-  </si>
-  <si>
-    <t>grandes regiões e unidades da federação</t>
   </si>
   <si>
     <t>norte</t>
@@ -503,7 +491,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -529,21 +517,21 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>0.2934201167807209</v>
@@ -563,671 +551,661 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>0.3141147355679608</v>
+      </c>
+      <c r="C5">
+        <v>0.3162706668918315</v>
+      </c>
+      <c r="D5">
+        <v>0.3167028976761875</v>
+      </c>
+      <c r="E5">
+        <v>0.6007167644979993</v>
+      </c>
+      <c r="F5">
+        <v>0.3727439055368884</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>0.3141147355679608</v>
+        <v>0.6903356658795899</v>
       </c>
       <c r="C6">
-        <v>0.3162706668918315</v>
+        <v>0.6926851132872882</v>
       </c>
       <c r="D6">
-        <v>0.3167028976761875</v>
+        <v>0.6728876053637447</v>
       </c>
       <c r="E6">
-        <v>0.6007167644979993</v>
+        <v>2.771611504855006</v>
       </c>
       <c r="F6">
-        <v>0.3727439055368884</v>
+        <v>0.7789450359906829</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7">
-        <v>0.6903356658795899</v>
+        <v>1.770386686814224</v>
       </c>
       <c r="C7">
-        <v>0.6926851132872882</v>
+        <v>1.573486769876515</v>
       </c>
       <c r="D7">
-        <v>0.6728876053637447</v>
+        <v>1.538633852595663</v>
       </c>
       <c r="E7">
-        <v>2.771611504855006</v>
+        <v>2.692333523882612</v>
       </c>
       <c r="F7">
-        <v>0.7789450359906829</v>
+        <v>2.205990401122583</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="B8">
+        <v>1.39223462396449</v>
+      </c>
+      <c r="C8">
+        <v>1.537104331139321</v>
+      </c>
+      <c r="D8">
+        <v>1.556551368305783</v>
+      </c>
+      <c r="E8">
+        <v>5.3710175659867</v>
+      </c>
+      <c r="F8">
+        <v>1.984049516322143</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B9">
-        <v>1.770386686814224</v>
+        <v>4.851772222874462</v>
       </c>
       <c r="C9">
-        <v>1.573486769876515</v>
+        <v>4.906112019026917</v>
       </c>
       <c r="D9">
-        <v>1.538633852595663</v>
+        <v>4.899960597171582</v>
       </c>
       <c r="E9">
-        <v>2.692333523882612</v>
+        <v>8.011008186359986</v>
       </c>
       <c r="F9">
-        <v>2.205990401122583</v>
+        <v>4.930092893707991</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B10">
-        <v>1.39223462396449</v>
+        <v>2.275963280974077</v>
       </c>
       <c r="C10">
-        <v>1.537104331139321</v>
+        <v>2.050842533457702</v>
       </c>
       <c r="D10">
-        <v>1.556551368305783</v>
+        <v>2.072173338420368</v>
       </c>
       <c r="E10">
-        <v>5.3710175659867</v>
+        <v>4.022260320238322</v>
       </c>
       <c r="F10">
-        <v>1.984049516322143</v>
+        <v>2.933341665664745</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>4.851772222874462</v>
+        <v>2.573705991861676</v>
       </c>
       <c r="C11">
-        <v>4.906112019026917</v>
+        <v>2.876142866902055</v>
       </c>
       <c r="D11">
-        <v>4.899960597171582</v>
+        <v>2.659714106010454</v>
       </c>
       <c r="E11">
-        <v>8.011008186359986</v>
+        <v>8.036668860359775</v>
       </c>
       <c r="F11">
-        <v>4.930092893707991</v>
+        <v>2.80767506187571</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>2.275963280974077</v>
+        <v>3.808718787610466</v>
       </c>
       <c r="C12">
-        <v>2.050842533457702</v>
+        <v>3.484284957449832</v>
       </c>
       <c r="D12">
-        <v>2.072173338420368</v>
+        <v>3.412138260503171</v>
       </c>
       <c r="E12">
-        <v>4.022260320238322</v>
+        <v>5.403549903502516</v>
       </c>
       <c r="F12">
-        <v>2.933341665664745</v>
+        <v>4.467114015939678</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>2.573705991861676</v>
+        <v>3.689179192766621</v>
       </c>
       <c r="C13">
-        <v>2.876142866902055</v>
+        <v>3.400432542422013</v>
       </c>
       <c r="D13">
-        <v>2.659714106010454</v>
+        <v>3.512769055493113</v>
       </c>
       <c r="E13">
-        <v>8.036668860359775</v>
+        <v>5.201314419262327</v>
       </c>
       <c r="F13">
-        <v>2.80767506187571</v>
+        <v>4.367585400184129</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14">
-        <v>3.808718787610466</v>
+        <v>2.285374015139411</v>
       </c>
       <c r="C14">
-        <v>3.484284957449832</v>
+        <v>2.568152305445853</v>
       </c>
       <c r="D14">
-        <v>3.412138260503171</v>
+        <v>2.570789237152689</v>
       </c>
       <c r="E14">
-        <v>5.403549903502516</v>
+        <v>3.901424604500442</v>
       </c>
       <c r="F14">
-        <v>4.467114015939678</v>
+        <v>1.938319463079831</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B15">
-        <v>3.689179192766621</v>
+        <v>0.565460172780045</v>
       </c>
       <c r="C15">
-        <v>3.400432542422013</v>
+        <v>0.5705470076944866</v>
       </c>
       <c r="D15">
-        <v>3.512769055493113</v>
+        <v>0.5634763018040551</v>
       </c>
       <c r="E15">
-        <v>5.201314419262327</v>
+        <v>1.120373675964546</v>
       </c>
       <c r="F15">
-        <v>4.367585400184129</v>
+        <v>0.6308438391793323</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16">
-        <v>2.285374015139411</v>
+        <v>1.84695132748445</v>
       </c>
       <c r="C16">
-        <v>2.568152305445853</v>
+        <v>1.952650692137659</v>
       </c>
       <c r="D16">
-        <v>2.570789237152689</v>
+        <v>1.922211212491088</v>
       </c>
       <c r="E16">
-        <v>3.901424604500442</v>
+        <v>5.383080654326725</v>
       </c>
       <c r="F16">
-        <v>1.938319463079831</v>
+        <v>2.00809759223146</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B17">
-        <v>0.565460172780045</v>
+        <v>1.768690709373505</v>
       </c>
       <c r="C17">
-        <v>0.5705470076944866</v>
+        <v>1.891770895297114</v>
       </c>
       <c r="D17">
-        <v>0.5634763018040551</v>
+        <v>1.900001448929747</v>
       </c>
       <c r="E17">
-        <v>1.120373675964546</v>
+        <v>4.295858945815995</v>
       </c>
       <c r="F17">
-        <v>0.6308438391793323</v>
+        <v>1.917362169323068</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B18">
-        <v>1.84695132748445</v>
+        <v>0.907406653883601</v>
       </c>
       <c r="C18">
-        <v>1.952650692137659</v>
+        <v>0.8735940654748823</v>
       </c>
       <c r="D18">
-        <v>1.922211212491088</v>
+        <v>0.8724486344328747</v>
       </c>
       <c r="E18">
-        <v>5.383080654326725</v>
+        <v>2.43779782095458</v>
       </c>
       <c r="F18">
-        <v>2.00809759223146</v>
+        <v>1.15324614620931</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B19">
-        <v>1.768690709373505</v>
+        <v>3.927515778345223</v>
       </c>
       <c r="C19">
-        <v>1.891770895297114</v>
+        <v>4.160377754922723</v>
       </c>
       <c r="D19">
-        <v>1.900001448929747</v>
+        <v>4.103293053052917</v>
       </c>
       <c r="E19">
-        <v>4.295858945815995</v>
+        <v>6.351510490414614</v>
       </c>
       <c r="F19">
-        <v>1.917362169323068</v>
+        <v>3.736648058037124</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B20">
-        <v>0.907406653883601</v>
+        <v>2.487382468031229</v>
       </c>
       <c r="C20">
-        <v>0.8735940654748823</v>
+        <v>2.426625888459683</v>
       </c>
       <c r="D20">
-        <v>0.8724486344328747</v>
+        <v>2.40782779859555</v>
       </c>
       <c r="E20">
-        <v>2.43779782095458</v>
+        <v>4.293674052239373</v>
       </c>
       <c r="F20">
-        <v>1.15324614620931</v>
+        <v>2.758871828583059</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B21">
-        <v>3.927515778345223</v>
+        <v>1.158109743438342</v>
       </c>
       <c r="C21">
-        <v>4.160377754922723</v>
+        <v>1.299548697252799</v>
       </c>
       <c r="D21">
-        <v>4.103293053052917</v>
+        <v>1.205294178464041</v>
       </c>
       <c r="E21">
-        <v>6.351510490414614</v>
+        <v>2.662590634652624</v>
       </c>
       <c r="F21">
-        <v>3.736648058037124</v>
+        <v>1.121752955404171</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B22">
-        <v>2.487382468031229</v>
+        <v>2.830133083186811</v>
       </c>
       <c r="C22">
-        <v>2.426625888459683</v>
+        <v>2.696851130687437</v>
       </c>
       <c r="D22">
-        <v>2.40782779859555</v>
+        <v>2.777450315862011</v>
       </c>
       <c r="E22">
-        <v>4.293674052239373</v>
+        <v>4.096832679148186</v>
       </c>
       <c r="F22">
-        <v>2.758871828583059</v>
+        <v>3.167210231668568</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B23">
-        <v>1.158109743438342</v>
+        <v>2.472179934407503</v>
       </c>
       <c r="C23">
-        <v>1.299548697252799</v>
+        <v>2.704737206485585</v>
       </c>
       <c r="D23">
-        <v>1.205294178464041</v>
+        <v>2.417664334061556</v>
       </c>
       <c r="E23">
-        <v>2.662590634652624</v>
+        <v>5.852738835127645</v>
       </c>
       <c r="F23">
-        <v>1.121752955404171</v>
+        <v>2.286318407088678</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B24">
-        <v>2.830133083186811</v>
+        <v>1.092752128627501</v>
       </c>
       <c r="C24">
-        <v>2.696851130687437</v>
+        <v>1.058975926813663</v>
       </c>
       <c r="D24">
-        <v>2.777450315862011</v>
+        <v>1.074370517525533</v>
       </c>
       <c r="E24">
-        <v>4.096832679148186</v>
+        <v>1.617860186075131</v>
       </c>
       <c r="F24">
-        <v>3.167210231668568</v>
+        <v>1.268358242896352</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B25">
-        <v>2.472179934407503</v>
+        <v>0.4486408939852145</v>
       </c>
       <c r="C25">
-        <v>2.704737206485585</v>
+        <v>0.4735931256888044</v>
       </c>
       <c r="D25">
-        <v>2.417664334061556</v>
+        <v>0.4749311095472591</v>
       </c>
       <c r="E25">
-        <v>5.852738835127645</v>
+        <v>0.9126743871250204</v>
       </c>
       <c r="F25">
-        <v>2.286318407088678</v>
+        <v>0.5095557505875236</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B26">
-        <v>1.092752128627501</v>
+        <v>0.9482003370210689</v>
       </c>
       <c r="C26">
-        <v>1.058975926813663</v>
+        <v>0.9932699044089542</v>
       </c>
       <c r="D26">
-        <v>1.074370517525533</v>
+        <v>0.9877494548137014</v>
       </c>
       <c r="E26">
-        <v>1.617860186075131</v>
+        <v>1.811861689016716</v>
       </c>
       <c r="F26">
-        <v>1.268358242896352</v>
+        <v>1.022315514488431</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B27">
-        <v>0.4486408939852145</v>
+        <v>1.737356112256781</v>
       </c>
       <c r="C27">
-        <v>0.4735931256888044</v>
+        <v>1.933843737724826</v>
       </c>
       <c r="D27">
-        <v>0.4749311095472591</v>
+        <v>1.922313274540169</v>
       </c>
       <c r="E27">
-        <v>0.9126743871250204</v>
+        <v>4.066007563526657</v>
       </c>
       <c r="F27">
-        <v>0.5095557505875236</v>
+        <v>1.859408188415051</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B28">
-        <v>0.9482003370210689</v>
+        <v>1.137463593438511</v>
       </c>
       <c r="C28">
-        <v>0.9932699044089542</v>
+        <v>1.165282399334368</v>
       </c>
       <c r="D28">
-        <v>0.9877494548137014</v>
+        <v>1.159845191926913</v>
       </c>
       <c r="E28">
-        <v>1.811861689016716</v>
+        <v>2.048322210692401</v>
       </c>
       <c r="F28">
-        <v>1.022315514488431</v>
+        <v>1.207228731492502</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B29">
-        <v>1.737356112256781</v>
+        <v>0.5841370629389075</v>
       </c>
       <c r="C29">
-        <v>1.933843737724826</v>
+        <v>0.6313612487812961</v>
       </c>
       <c r="D29">
-        <v>1.922313274540169</v>
+        <v>0.638042225678462</v>
       </c>
       <c r="E29">
-        <v>4.066007563526657</v>
+        <v>1.274185197835252</v>
       </c>
       <c r="F29">
-        <v>1.859408188415051</v>
+        <v>0.6985297525351364</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>1.137463593438511</v>
+        <v>0.5088305991074088</v>
       </c>
       <c r="C30">
-        <v>1.165282399334368</v>
+        <v>0.5396770436573298</v>
       </c>
       <c r="D30">
-        <v>1.159845191926913</v>
+        <v>0.558657196694194</v>
       </c>
       <c r="E30">
-        <v>2.048322210692401</v>
+        <v>1.269264363758331</v>
       </c>
       <c r="F30">
-        <v>1.207228731492502</v>
+        <v>0.5903707082431447</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31">
-        <v>0.5841370629389075</v>
+        <v>0.8476569708773086</v>
       </c>
       <c r="C31">
-        <v>0.6313612487812961</v>
+        <v>0.9019571229865113</v>
       </c>
       <c r="D31">
-        <v>0.638042225678462</v>
+        <v>0.9272193774314601</v>
       </c>
       <c r="E31">
-        <v>1.274185197835252</v>
+        <v>2.210598494355919</v>
       </c>
       <c r="F31">
-        <v>0.6985297525351364</v>
+        <v>0.9761757004193293</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B32">
-        <v>0.5088305991074088</v>
+        <v>1.342515229803166</v>
       </c>
       <c r="C32">
-        <v>0.5396770436573298</v>
+        <v>1.437480577692287</v>
       </c>
       <c r="D32">
-        <v>0.558657196694194</v>
+        <v>1.505728921249468</v>
       </c>
       <c r="E32">
-        <v>1.269264363758331</v>
+        <v>2.839709075740476</v>
       </c>
       <c r="F32">
-        <v>0.5903707082431447</v>
+        <v>1.385381703270358</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B33">
-        <v>0.8476569708773086</v>
+        <v>0.6435114127907654</v>
       </c>
       <c r="C33">
-        <v>0.9019571229865113</v>
+        <v>0.6527857306084177</v>
       </c>
       <c r="D33">
-        <v>0.9272193774314601</v>
+        <v>0.6611903824613282</v>
       </c>
       <c r="E33">
-        <v>2.210598494355919</v>
+        <v>1.773655919331862</v>
       </c>
       <c r="F33">
-        <v>0.9761757004193293</v>
+        <v>0.866114744547358</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>1.342515229803166</v>
+        <v>0.8084608314685822</v>
       </c>
       <c r="C34">
-        <v>1.437480577692287</v>
+        <v>0.8009232895883135</v>
       </c>
       <c r="D34">
-        <v>1.505728921249468</v>
+        <v>0.7995787730711916</v>
       </c>
       <c r="E34">
-        <v>2.839709075740476</v>
+        <v>1.711112572544048</v>
       </c>
       <c r="F34">
-        <v>1.385381703270358</v>
+        <v>1.014034258472574</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B35">
-        <v>0.6435114127907654</v>
+        <v>1.708181966458168</v>
       </c>
       <c r="C35">
-        <v>0.6527857306084177</v>
+        <v>1.696255927522408</v>
       </c>
       <c r="D35">
-        <v>0.6611903824613282</v>
+        <v>1.748944135512766</v>
       </c>
       <c r="E35">
-        <v>1.773655919331862</v>
+        <v>3.195923513783512</v>
       </c>
       <c r="F35">
-        <v>0.866114744547358</v>
+        <v>1.962726738324673</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
-        <v>0.8084608314685822</v>
+        <v>2.175700307479773</v>
       </c>
       <c r="C36">
-        <v>0.8009232895883135</v>
+        <v>2.080332145764935</v>
       </c>
       <c r="D36">
-        <v>0.7995787730711916</v>
+        <v>2.084449107980896</v>
       </c>
       <c r="E36">
-        <v>1.711112572544048</v>
+        <v>4.231058939653198</v>
       </c>
       <c r="F36">
-        <v>1.014034258472574</v>
+        <v>2.790175556395834</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>1.708181966458168</v>
+        <v>1.213462618902173</v>
       </c>
       <c r="C37">
-        <v>1.696255927522408</v>
+        <v>1.258629038542598</v>
       </c>
       <c r="D37">
-        <v>1.748944135512766</v>
+        <v>1.246000916091215</v>
       </c>
       <c r="E37">
-        <v>3.195923513783512</v>
+        <v>2.860655344672471</v>
       </c>
       <c r="F37">
-        <v>1.962726738324673</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B38">
-        <v>2.175700307479773</v>
-      </c>
-      <c r="C38">
-        <v>2.080332145764935</v>
-      </c>
-      <c r="D38">
-        <v>2.084449107980896</v>
-      </c>
-      <c r="E38">
-        <v>4.231058939653198</v>
-      </c>
-      <c r="F38">
-        <v>2.790175556395834</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B39">
-        <v>1.213462618902173</v>
-      </c>
-      <c r="C39">
-        <v>1.258629038542598</v>
-      </c>
-      <c r="D39">
-        <v>1.246000916091215</v>
-      </c>
-      <c r="E39">
-        <v>2.860655344672471</v>
-      </c>
-      <c r="F39">
         <v>1.517531090618587</v>
       </c>
     </row>
